--- a/Code/Results/Cases/Case_3_149/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_149/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.058574425941127</v>
+        <v>1.085048644128605</v>
       </c>
       <c r="D2">
-        <v>1.072824291861803</v>
+        <v>1.087980782939046</v>
       </c>
       <c r="E2">
-        <v>1.06525976911314</v>
+        <v>1.087926566658925</v>
       </c>
       <c r="F2">
-        <v>1.077056166237297</v>
+        <v>1.099669929262688</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.078786503523834</v>
+        <v>1.068117173912336</v>
       </c>
       <c r="J2">
-        <v>1.079133978513678</v>
+        <v>1.089905424368914</v>
       </c>
       <c r="K2">
-        <v>1.083354403222704</v>
+        <v>1.09063464894122</v>
       </c>
       <c r="L2">
-        <v>1.075879068109501</v>
+        <v>1.09058057227361</v>
       </c>
       <c r="M2">
-        <v>1.087537058118175</v>
+        <v>1.102294040925225</v>
       </c>
       <c r="N2">
-        <v>1.080666472541565</v>
+        <v>1.091453215085418</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.065673943182072</v>
+        <v>1.08643571763501</v>
       </c>
       <c r="D3">
-        <v>1.078710738596512</v>
+        <v>1.08913806745221</v>
       </c>
       <c r="E3">
-        <v>1.0715762963602</v>
+        <v>1.089182942581487</v>
       </c>
       <c r="F3">
-        <v>1.083635725102202</v>
+        <v>1.100996959608187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.082013999843552</v>
+        <v>1.068650053587837</v>
       </c>
       <c r="J3">
-        <v>1.084521400605567</v>
+        <v>1.09095354479349</v>
       </c>
       <c r="K3">
-        <v>1.088426618675819</v>
+        <v>1.091610787050656</v>
       </c>
       <c r="L3">
-        <v>1.081368482186883</v>
+        <v>1.091655555005366</v>
       </c>
       <c r="M3">
-        <v>1.093299647073301</v>
+        <v>1.103441682849266</v>
       </c>
       <c r="N3">
-        <v>1.086061545390771</v>
+        <v>1.092502823961218</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.070136364641187</v>
+        <v>1.087332004646575</v>
       </c>
       <c r="D4">
-        <v>1.082412699588055</v>
+        <v>1.089885779368614</v>
       </c>
       <c r="E4">
-        <v>1.07554724285575</v>
+        <v>1.089994488272621</v>
       </c>
       <c r="F4">
-        <v>1.087775545946542</v>
+        <v>1.101854623681957</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.084030696836938</v>
+        <v>1.06899293960828</v>
       </c>
       <c r="J4">
-        <v>1.087901538711149</v>
+        <v>1.09162998715082</v>
       </c>
       <c r="K4">
-        <v>1.091608703983532</v>
+        <v>1.092240698853189</v>
       </c>
       <c r="L4">
-        <v>1.084811991241827</v>
+        <v>1.092349161241834</v>
       </c>
       <c r="M4">
-        <v>1.096918584618382</v>
+        <v>1.104182714338881</v>
       </c>
       <c r="N4">
-        <v>1.08944648368017</v>
+        <v>1.093180226944284</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.071982554457763</v>
+        <v>1.087708511926824</v>
       </c>
       <c r="D5">
-        <v>1.083944690758771</v>
+        <v>1.090199851368598</v>
       </c>
       <c r="E5">
-        <v>1.077190209207662</v>
+        <v>1.09033532858016</v>
       </c>
       <c r="F5">
-        <v>1.089489224780941</v>
+        <v>1.102214947923218</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.08486213661105</v>
+        <v>1.069136631032567</v>
       </c>
       <c r="J5">
-        <v>1.089298453916915</v>
+        <v>1.091913946078946</v>
       </c>
       <c r="K5">
-        <v>1.092923690343528</v>
+        <v>1.092505107142036</v>
       </c>
       <c r="L5">
-        <v>1.086234943373741</v>
+        <v>1.092640283998206</v>
       </c>
       <c r="M5">
-        <v>1.098415001930696</v>
+        <v>1.104493872731965</v>
       </c>
       <c r="N5">
-        <v>1.090845382665756</v>
+        <v>1.093464589126659</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.072290835376165</v>
+        <v>1.087771712208968</v>
       </c>
       <c r="D6">
-        <v>1.084200528858664</v>
+        <v>1.090252569954156</v>
       </c>
       <c r="E6">
-        <v>1.077464560366707</v>
+        <v>1.090392537753033</v>
       </c>
       <c r="F6">
-        <v>1.089775433287876</v>
+        <v>1.102275434148457</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.085000800264875</v>
+        <v>1.069160730677033</v>
       </c>
       <c r="J6">
-        <v>1.089531623852996</v>
+        <v>1.091961599678299</v>
       </c>
       <c r="K6">
-        <v>1.093143179955321</v>
+        <v>1.092549478725027</v>
       </c>
       <c r="L6">
-        <v>1.086472450265213</v>
+        <v>1.092689137402578</v>
       </c>
       <c r="M6">
-        <v>1.098664828191708</v>
+        <v>1.104546095956155</v>
       </c>
       <c r="N6">
-        <v>1.091078883729891</v>
+        <v>1.093512310399589</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.070161148568358</v>
+        <v>1.087337036694772</v>
       </c>
       <c r="D7">
-        <v>1.082433264025503</v>
+        <v>1.089889977054521</v>
       </c>
       <c r="E7">
-        <v>1.075569298271956</v>
+        <v>1.089999043901818</v>
       </c>
       <c r="F7">
-        <v>1.0877985472915</v>
+        <v>1.101859439280206</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.084041869940005</v>
+        <v>1.068994861416152</v>
       </c>
       <c r="J7">
-        <v>1.087920297450097</v>
+        <v>1.09163378305882</v>
       </c>
       <c r="K7">
-        <v>1.091626362852273</v>
+        <v>1.092244233482632</v>
       </c>
       <c r="L7">
-        <v>1.084831100230848</v>
+        <v>1.0923530530767</v>
       </c>
       <c r="M7">
-        <v>1.09693867632886</v>
+        <v>1.104186873505685</v>
       </c>
       <c r="N7">
-        <v>1.089465269058678</v>
+        <v>1.093184028242909</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.061001995500685</v>
+        <v>1.085517672735602</v>
       </c>
       <c r="D8">
-        <v>1.074836603303578</v>
+        <v>1.088372128798516</v>
       </c>
       <c r="E8">
-        <v>1.067419431199489</v>
+        <v>1.088351460425531</v>
       </c>
       <c r="F8">
-        <v>1.079305017208028</v>
+        <v>1.10011861811626</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.079892593008468</v>
+        <v>1.068297662695122</v>
       </c>
       <c r="J8">
-        <v>1.08097739386171</v>
+        <v>1.090260008928863</v>
       </c>
       <c r="K8">
-        <v>1.085090018685717</v>
+        <v>1.090964896804884</v>
       </c>
       <c r="L8">
-        <v>1.077757510623833</v>
+        <v>1.090944280349007</v>
       </c>
       <c r="M8">
-        <v>1.089508119098906</v>
+        <v>1.102682219601145</v>
       </c>
       <c r="N8">
-        <v>1.082512505750834</v>
+        <v>1.091808303196112</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.043773810259896</v>
+        <v>1.082301953678646</v>
       </c>
       <c r="D9">
-        <v>1.060567167593391</v>
+        <v>1.085688659064118</v>
       </c>
       <c r="E9">
-        <v>1.05209790003069</v>
+        <v>1.085437161479364</v>
       </c>
       <c r="F9">
-        <v>1.063366044595116</v>
+        <v>1.09704309022976</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.071992888003354</v>
+        <v>1.067054273034987</v>
       </c>
       <c r="J9">
-        <v>1.067870160786426</v>
+        <v>1.087825557963856</v>
       </c>
       <c r="K9">
-        <v>1.072748481494337</v>
+        <v>1.088697233245837</v>
       </c>
       <c r="L9">
-        <v>1.064398717833587</v>
+        <v>1.08844647647644</v>
       </c>
       <c r="M9">
-        <v>1.075508393439226</v>
+        <v>1.100018603220093</v>
       </c>
       <c r="N9">
-        <v>1.069386658901162</v>
+        <v>1.0893703950315</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.031428387263611</v>
+        <v>1.080151218646692</v>
       </c>
       <c r="D10">
-        <v>1.050360674036251</v>
+        <v>1.083893485073913</v>
       </c>
       <c r="E10">
-        <v>1.041128662187522</v>
+        <v>1.083486558536975</v>
       </c>
       <c r="F10">
-        <v>1.051974526003822</v>
+        <v>1.094987067075027</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.066270170388153</v>
+        <v>1.06621521581723</v>
       </c>
       <c r="J10">
-        <v>1.058448260608047</v>
+        <v>1.086193117139393</v>
       </c>
       <c r="K10">
-        <v>1.063876523782897</v>
+        <v>1.087176262321768</v>
       </c>
       <c r="L10">
-        <v>1.0547930165174</v>
+        <v>1.086770652723627</v>
       </c>
       <c r="M10">
-        <v>1.065464758394906</v>
+        <v>1.098234354614831</v>
       </c>
       <c r="N10">
-        <v>1.059951378543823</v>
+        <v>1.087735635953822</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.025845441219836</v>
+        <v>1.079218205109822</v>
       </c>
       <c r="D11">
-        <v>1.045750809865121</v>
+        <v>1.08311462737454</v>
       </c>
       <c r="E11">
-        <v>1.036171530917379</v>
+        <v>1.082640021225304</v>
       </c>
       <c r="F11">
-        <v>1.046831322427538</v>
+        <v>1.094095372269268</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.063668189384273</v>
+        <v>1.065849456870624</v>
       </c>
       <c r="J11">
-        <v>1.05418119030895</v>
+        <v>1.085483944104254</v>
       </c>
       <c r="K11">
-        <v>1.0598586014571</v>
+        <v>1.086515428573439</v>
       </c>
       <c r="L11">
-        <v>1.050442090438355</v>
+        <v>1.08604241832261</v>
       </c>
       <c r="M11">
-        <v>1.060920995279369</v>
+        <v>1.09745967398313</v>
       </c>
       <c r="N11">
-        <v>1.055678248515461</v>
+        <v>1.087025455811631</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.023732777942889</v>
+        <v>1.078871375320308</v>
       </c>
       <c r="D12">
-        <v>1.044007373679276</v>
+        <v>1.082825089134557</v>
       </c>
       <c r="E12">
-        <v>1.03429631231646</v>
+        <v>1.082325286029999</v>
       </c>
       <c r="F12">
-        <v>1.044886436460541</v>
+        <v>1.093763937266375</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.062681526483956</v>
+        <v>1.065713227800211</v>
       </c>
       <c r="J12">
-        <v>1.052565612357592</v>
+        <v>1.085220172448212</v>
       </c>
       <c r="K12">
-        <v>1.058337385991373</v>
+        <v>1.086269623592112</v>
       </c>
       <c r="L12">
-        <v>1.04879468052445</v>
+        <v>1.085771524585224</v>
       </c>
       <c r="M12">
-        <v>1.059201408443604</v>
+        <v>1.097171603606538</v>
       </c>
       <c r="N12">
-        <v>1.054060376258102</v>
+        <v>1.086761309569582</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.024187768859884</v>
+        <v>1.078945783682675</v>
       </c>
       <c r="D13">
-        <v>1.04438279917792</v>
+        <v>1.082887206823435</v>
       </c>
       <c r="E13">
-        <v>1.034700136094815</v>
+        <v>1.082392811179452</v>
       </c>
       <c r="F13">
-        <v>1.045305230277496</v>
+        <v>1.093835041245435</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.062894108644149</v>
+        <v>1.065742466187297</v>
       </c>
       <c r="J13">
-        <v>1.05291358668367</v>
+        <v>1.085276768433888</v>
       </c>
       <c r="K13">
-        <v>1.05866503414921</v>
+        <v>1.086322365145458</v>
       </c>
       <c r="L13">
-        <v>1.049149514611188</v>
+        <v>1.085829650180312</v>
       </c>
       <c r="M13">
-        <v>1.059571750712128</v>
+        <v>1.097233410228701</v>
       </c>
       <c r="N13">
-        <v>1.054408844747637</v>
+        <v>1.086817985928049</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.025671621827185</v>
+        <v>1.079189541538666</v>
       </c>
       <c r="D14">
-        <v>1.045607347578793</v>
+        <v>1.083090698893517</v>
       </c>
       <c r="E14">
-        <v>1.036017233898055</v>
+        <v>1.082614011139446</v>
       </c>
       <c r="F14">
-        <v>1.046671278361063</v>
+        <v>1.0940679802684</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.063587052596495</v>
+        <v>1.065838203697173</v>
       </c>
       <c r="J14">
-        <v>1.054048285598814</v>
+        <v>1.085462147893449</v>
       </c>
       <c r="K14">
-        <v>1.059733458683588</v>
+        <v>1.086495117260031</v>
       </c>
       <c r="L14">
-        <v>1.050306568708739</v>
+        <v>1.086020034253827</v>
       </c>
       <c r="M14">
-        <v>1.060779518989593</v>
+        <v>1.097435868546201</v>
       </c>
       <c r="N14">
-        <v>1.055545155065392</v>
+        <v>1.087003628647706</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.026580612497898</v>
+        <v>1.079339693207604</v>
       </c>
       <c r="D15">
-        <v>1.046357626810069</v>
+        <v>1.083216045672927</v>
       </c>
       <c r="E15">
-        <v>1.036824158259068</v>
+        <v>1.082750260655017</v>
       </c>
       <c r="F15">
-        <v>1.047508287312696</v>
+        <v>1.094211472375255</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.064011276031007</v>
+        <v>1.065897141627185</v>
       </c>
       <c r="J15">
-        <v>1.054743277937565</v>
+        <v>1.085576319331625</v>
       </c>
       <c r="K15">
-        <v>1.060387863277065</v>
+        <v>1.0866015100875</v>
       </c>
       <c r="L15">
-        <v>1.051015242795976</v>
+        <v>1.086137283645432</v>
       </c>
       <c r="M15">
-        <v>1.061519364923514</v>
+        <v>1.097560567292446</v>
       </c>
       <c r="N15">
-        <v>1.056241134372981</v>
+        <v>1.087117962222421</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.03179364047169</v>
+        <v>1.080213102618754</v>
       </c>
       <c r="D16">
-        <v>1.050662395801368</v>
+        <v>1.083945142506735</v>
       </c>
       <c r="E16">
-        <v>1.041453053165773</v>
+        <v>1.083542699599495</v>
       </c>
       <c r="F16">
-        <v>1.05231119250894</v>
+        <v>1.095046215423509</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.066440115341489</v>
+        <v>1.066239438328681</v>
       </c>
       <c r="J16">
-        <v>1.058727302527926</v>
+        <v>1.08624013337938</v>
       </c>
       <c r="K16">
-        <v>1.064139276128894</v>
+        <v>1.087220072002269</v>
       </c>
       <c r="L16">
-        <v>1.055077530169578</v>
+        <v>1.086818928154407</v>
       </c>
       <c r="M16">
-        <v>1.065761996900052</v>
+        <v>1.098285723121114</v>
       </c>
       <c r="N16">
-        <v>1.060230816735234</v>
+        <v>1.087782718962263</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.03499792761736</v>
+        <v>1.080760500919259</v>
       </c>
       <c r="D17">
-        <v>1.053310003954889</v>
+        <v>1.084402070984571</v>
       </c>
       <c r="E17">
-        <v>1.044299267633287</v>
+        <v>1.084039259067413</v>
       </c>
       <c r="F17">
-        <v>1.055265651131209</v>
+        <v>1.09556944240613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.067929431685543</v>
+        <v>1.066453496139866</v>
       </c>
       <c r="J17">
-        <v>1.061174582440146</v>
+        <v>1.086655902729694</v>
       </c>
       <c r="K17">
-        <v>1.066443703345799</v>
+        <v>1.087607475523347</v>
       </c>
       <c r="L17">
-        <v>1.057572730450576</v>
+        <v>1.087245807880043</v>
       </c>
       <c r="M17">
-        <v>1.068369418968996</v>
+        <v>1.098740030918336</v>
       </c>
       <c r="N17">
-        <v>1.062681572065637</v>
+        <v>1.088199078752744</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.036844278650232</v>
+        <v>1.081079622535084</v>
       </c>
       <c r="D18">
-        <v>1.054836125485813</v>
+        <v>1.084668441828436</v>
       </c>
       <c r="E18">
-        <v>1.045939610823958</v>
+        <v>1.084328709605573</v>
       </c>
       <c r="F18">
-        <v>1.056968825427977</v>
+        <v>1.09587449494345</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.068786273373974</v>
+        <v>1.066578117067019</v>
       </c>
       <c r="J18">
-        <v>1.06258414607241</v>
+        <v>1.086898190920435</v>
       </c>
       <c r="K18">
-        <v>1.067770994626704</v>
+        <v>1.087833225328268</v>
       </c>
       <c r="L18">
-        <v>1.059009836469269</v>
+        <v>1.087494549931139</v>
       </c>
       <c r="M18">
-        <v>1.069871677353182</v>
+        <v>1.099004819773556</v>
       </c>
       <c r="N18">
-        <v>1.064093137439937</v>
+        <v>1.088441711020507</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.037470086369756</v>
+        <v>1.081188406718329</v>
       </c>
       <c r="D19">
-        <v>1.055353481001169</v>
+        <v>1.084759242485953</v>
       </c>
       <c r="E19">
-        <v>1.046495644628328</v>
+        <v>1.084427373698939</v>
       </c>
       <c r="F19">
-        <v>1.057546233058371</v>
+        <v>1.095978486934635</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.069076467842953</v>
+        <v>1.066620569752246</v>
       </c>
       <c r="J19">
-        <v>1.063061805570291</v>
+        <v>1.086980767262415</v>
       </c>
       <c r="K19">
-        <v>1.068220775079916</v>
+        <v>1.087910163667716</v>
       </c>
       <c r="L19">
-        <v>1.059496819111111</v>
+        <v>1.087579322365319</v>
       </c>
       <c r="M19">
-        <v>1.070380825476823</v>
+        <v>1.099095071973065</v>
       </c>
       <c r="N19">
-        <v>1.064571475269094</v>
+        <v>1.088524404630364</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.034656503552451</v>
+        <v>1.080701787541275</v>
       </c>
       <c r="D20">
-        <v>1.053027838729752</v>
+        <v>1.084353062209942</v>
       </c>
       <c r="E20">
-        <v>1.04399596323799</v>
+        <v>1.083986002033934</v>
       </c>
       <c r="F20">
-        <v>1.054950765264155</v>
+        <v>1.095513319308988</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.067770878514378</v>
+        <v>1.06643055413135</v>
       </c>
       <c r="J20">
-        <v>1.060913880043733</v>
+        <v>1.086611317723057</v>
       </c>
       <c r="K20">
-        <v>1.06619821785221</v>
+        <v>1.087565933182135</v>
       </c>
       <c r="L20">
-        <v>1.057306929227768</v>
+        <v>1.087200033592599</v>
       </c>
       <c r="M20">
-        <v>1.068091609382765</v>
+        <v>1.098691308843989</v>
       </c>
       <c r="N20">
-        <v>1.062420499441918</v>
+        <v>1.088154430430284</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.025235766388927</v>
+        <v>1.079117768352619</v>
       </c>
       <c r="D21">
-        <v>1.045247629696951</v>
+        <v>1.083030782101625</v>
       </c>
       <c r="E21">
-        <v>1.035630341663692</v>
+        <v>1.082548881416844</v>
       </c>
       <c r="F21">
-        <v>1.046269987308982</v>
+        <v>1.093999391649514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.063383568029353</v>
+        <v>1.065810021622966</v>
       </c>
       <c r="J21">
-        <v>1.053715010945058</v>
+        <v>1.085407568056703</v>
       </c>
       <c r="K21">
-        <v>1.059419648594145</v>
+        <v>1.086444255545531</v>
       </c>
       <c r="L21">
-        <v>1.049966730263881</v>
+        <v>1.085963981840723</v>
       </c>
       <c r="M21">
-        <v>1.060424762204369</v>
+        <v>1.097376258482819</v>
       </c>
       <c r="N21">
-        <v>1.055211407123401</v>
+        <v>1.086948971301331</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.019085536503036</v>
+        <v>1.078120284256394</v>
       </c>
       <c r="D22">
-        <v>1.040174322129825</v>
+        <v>1.082198045222038</v>
       </c>
       <c r="E22">
-        <v>1.030172667456188</v>
+        <v>1.081643605240507</v>
       </c>
       <c r="F22">
-        <v>1.040610929040182</v>
+        <v>1.093046250248712</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.060507478306279</v>
+        <v>1.065417726466453</v>
       </c>
       <c r="J22">
-        <v>1.049010317136426</v>
+        <v>1.084648676596193</v>
       </c>
       <c r="K22">
-        <v>1.054989827704792</v>
+        <v>1.085737031711144</v>
       </c>
       <c r="L22">
-        <v>1.045169193750517</v>
+        <v>1.085184538529897</v>
       </c>
       <c r="M22">
-        <v>1.055418635351583</v>
+        <v>1.096547582806059</v>
       </c>
       <c r="N22">
-        <v>1.050500032109925</v>
+        <v>1.086189002127902</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.022368608845658</v>
+        <v>1.078649218544911</v>
       </c>
       <c r="D23">
-        <v>1.042881917468123</v>
+        <v>1.082639626080888</v>
       </c>
       <c r="E23">
-        <v>1.033085655218867</v>
+        <v>1.08212367258406</v>
       </c>
       <c r="F23">
-        <v>1.043631005652929</v>
+        <v>1.093551651415938</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.062043862353469</v>
+        <v>1.065625893598054</v>
       </c>
       <c r="J23">
-        <v>1.05152218416866</v>
+        <v>1.085051175076702</v>
       </c>
       <c r="K23">
-        <v>1.057354913505097</v>
+        <v>1.086112133818153</v>
       </c>
       <c r="L23">
-        <v>1.0477306714724</v>
+        <v>1.085597955009128</v>
       </c>
       <c r="M23">
-        <v>1.058091019834342</v>
+        <v>1.096987056829182</v>
       </c>
       <c r="N23">
-        <v>1.05301546628146</v>
+        <v>1.08659207220242</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.034810848161632</v>
+        <v>1.080728318103635</v>
       </c>
       <c r="D24">
-        <v>1.053155393054853</v>
+        <v>1.084375207622021</v>
       </c>
       <c r="E24">
-        <v>1.044133074439001</v>
+        <v>1.084010067163685</v>
       </c>
       <c r="F24">
-        <v>1.055093110574034</v>
+        <v>1.09553867934344</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.067842558377448</v>
+        <v>1.066440921364522</v>
       </c>
       <c r="J24">
-        <v>1.061031735348662</v>
+        <v>1.086631464457202</v>
       </c>
       <c r="K24">
-        <v>1.066309194057251</v>
+        <v>1.087584705045396</v>
       </c>
       <c r="L24">
-        <v>1.057427089732843</v>
+        <v>1.087220717793817</v>
       </c>
       <c r="M24">
-        <v>1.068217196887144</v>
+        <v>1.098713324873464</v>
       </c>
       <c r="N24">
-        <v>1.062538522114898</v>
+        <v>1.088174605775102</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.048369051796984</v>
+        <v>1.083134488069407</v>
       </c>
       <c r="D25">
-        <v>1.064370439483754</v>
+        <v>1.086383472965325</v>
       </c>
       <c r="E25">
-        <v>1.056183226294203</v>
+        <v>1.086191918468698</v>
       </c>
       <c r="F25">
-        <v>1.067612658444851</v>
+        <v>1.09783916489017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.074110713725308</v>
+        <v>1.067377493219344</v>
       </c>
       <c r="J25">
-        <v>1.071371479724262</v>
+        <v>1.088456571607262</v>
       </c>
       <c r="K25">
-        <v>1.076045398833293</v>
+        <v>1.089285081142773</v>
       </c>
       <c r="L25">
-        <v>1.067967766859059</v>
+        <v>1.08909406936382</v>
       </c>
       <c r="M25">
-        <v>1.079244805047309</v>
+        <v>1.100708689804984</v>
       </c>
       <c r="N25">
-        <v>1.072892950113497</v>
+        <v>1.090002304786658</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_149/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_149/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.085048644128605</v>
+        <v>1.058574425941127</v>
       </c>
       <c r="D2">
-        <v>1.087980782939046</v>
+        <v>1.072824291861803</v>
       </c>
       <c r="E2">
-        <v>1.087926566658925</v>
+        <v>1.06525976911314</v>
       </c>
       <c r="F2">
-        <v>1.099669929262688</v>
+        <v>1.077056166237297</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.068117173912336</v>
+        <v>1.078786503523834</v>
       </c>
       <c r="J2">
-        <v>1.089905424368914</v>
+        <v>1.079133978513678</v>
       </c>
       <c r="K2">
-        <v>1.09063464894122</v>
+        <v>1.083354403222704</v>
       </c>
       <c r="L2">
-        <v>1.09058057227361</v>
+        <v>1.075879068109501</v>
       </c>
       <c r="M2">
-        <v>1.102294040925225</v>
+        <v>1.087537058118175</v>
       </c>
       <c r="N2">
-        <v>1.091453215085418</v>
+        <v>1.080666472541565</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.08643571763501</v>
+        <v>1.065673943182072</v>
       </c>
       <c r="D3">
-        <v>1.08913806745221</v>
+        <v>1.078710738596512</v>
       </c>
       <c r="E3">
-        <v>1.089182942581487</v>
+        <v>1.0715762963602</v>
       </c>
       <c r="F3">
-        <v>1.100996959608187</v>
+        <v>1.083635725102202</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.068650053587837</v>
+        <v>1.082013999843552</v>
       </c>
       <c r="J3">
-        <v>1.09095354479349</v>
+        <v>1.084521400605567</v>
       </c>
       <c r="K3">
-        <v>1.091610787050656</v>
+        <v>1.088426618675819</v>
       </c>
       <c r="L3">
-        <v>1.091655555005366</v>
+        <v>1.081368482186883</v>
       </c>
       <c r="M3">
-        <v>1.103441682849266</v>
+        <v>1.093299647073301</v>
       </c>
       <c r="N3">
-        <v>1.092502823961218</v>
+        <v>1.086061545390771</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.087332004646575</v>
+        <v>1.070136364641187</v>
       </c>
       <c r="D4">
-        <v>1.089885779368614</v>
+        <v>1.082412699588054</v>
       </c>
       <c r="E4">
-        <v>1.089994488272621</v>
+        <v>1.07554724285575</v>
       </c>
       <c r="F4">
-        <v>1.101854623681957</v>
+        <v>1.087775545946541</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06899293960828</v>
+        <v>1.084030696836938</v>
       </c>
       <c r="J4">
-        <v>1.09162998715082</v>
+        <v>1.087901538711149</v>
       </c>
       <c r="K4">
-        <v>1.092240698853189</v>
+        <v>1.091608703983531</v>
       </c>
       <c r="L4">
-        <v>1.092349161241834</v>
+        <v>1.084811991241826</v>
       </c>
       <c r="M4">
-        <v>1.104182714338881</v>
+        <v>1.096918584618381</v>
       </c>
       <c r="N4">
-        <v>1.093180226944284</v>
+        <v>1.089446483680169</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.087708511926824</v>
+        <v>1.071982554457762</v>
       </c>
       <c r="D5">
-        <v>1.090199851368598</v>
+        <v>1.083944690758771</v>
       </c>
       <c r="E5">
-        <v>1.09033532858016</v>
+        <v>1.077190209207662</v>
       </c>
       <c r="F5">
-        <v>1.102214947923218</v>
+        <v>1.08948922478094</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069136631032567</v>
+        <v>1.08486213661105</v>
       </c>
       <c r="J5">
-        <v>1.091913946078946</v>
+        <v>1.089298453916915</v>
       </c>
       <c r="K5">
-        <v>1.092505107142036</v>
+        <v>1.092923690343527</v>
       </c>
       <c r="L5">
-        <v>1.092640283998206</v>
+        <v>1.08623494337374</v>
       </c>
       <c r="M5">
-        <v>1.104493872731965</v>
+        <v>1.098415001930696</v>
       </c>
       <c r="N5">
-        <v>1.093464589126659</v>
+        <v>1.090845382665756</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.087771712208968</v>
+        <v>1.072290835376168</v>
       </c>
       <c r="D6">
-        <v>1.090252569954156</v>
+        <v>1.084200528858666</v>
       </c>
       <c r="E6">
-        <v>1.090392537753033</v>
+        <v>1.077464560366709</v>
       </c>
       <c r="F6">
-        <v>1.102275434148457</v>
+        <v>1.089775433287878</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069160730677033</v>
+        <v>1.085000800264877</v>
       </c>
       <c r="J6">
-        <v>1.091961599678299</v>
+        <v>1.089531623852999</v>
       </c>
       <c r="K6">
-        <v>1.092549478725027</v>
+        <v>1.093143179955325</v>
       </c>
       <c r="L6">
-        <v>1.092689137402578</v>
+        <v>1.086472450265216</v>
       </c>
       <c r="M6">
-        <v>1.104546095956155</v>
+        <v>1.098664828191711</v>
       </c>
       <c r="N6">
-        <v>1.093512310399589</v>
+        <v>1.091078883729894</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.087337036694772</v>
+        <v>1.070161148568359</v>
       </c>
       <c r="D7">
-        <v>1.089889977054521</v>
+        <v>1.082433264025503</v>
       </c>
       <c r="E7">
-        <v>1.089999043901818</v>
+        <v>1.075569298271957</v>
       </c>
       <c r="F7">
-        <v>1.101859439280206</v>
+        <v>1.0877985472915</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068994861416152</v>
+        <v>1.084041869940006</v>
       </c>
       <c r="J7">
-        <v>1.09163378305882</v>
+        <v>1.087920297450097</v>
       </c>
       <c r="K7">
-        <v>1.092244233482632</v>
+        <v>1.091626362852274</v>
       </c>
       <c r="L7">
-        <v>1.0923530530767</v>
+        <v>1.084831100230848</v>
       </c>
       <c r="M7">
-        <v>1.104186873505685</v>
+        <v>1.09693867632886</v>
       </c>
       <c r="N7">
-        <v>1.093184028242909</v>
+        <v>1.089465269058679</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.085517672735602</v>
+        <v>1.061001995500683</v>
       </c>
       <c r="D8">
-        <v>1.088372128798516</v>
+        <v>1.074836603303576</v>
       </c>
       <c r="E8">
-        <v>1.088351460425531</v>
+        <v>1.067419431199487</v>
       </c>
       <c r="F8">
-        <v>1.10011861811626</v>
+        <v>1.079305017208026</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.068297662695122</v>
+        <v>1.079892593008467</v>
       </c>
       <c r="J8">
-        <v>1.090260008928863</v>
+        <v>1.080977393861708</v>
       </c>
       <c r="K8">
-        <v>1.090964896804884</v>
+        <v>1.085090018685715</v>
       </c>
       <c r="L8">
-        <v>1.090944280349007</v>
+        <v>1.077757510623831</v>
       </c>
       <c r="M8">
-        <v>1.102682219601145</v>
+        <v>1.089508119098905</v>
       </c>
       <c r="N8">
-        <v>1.091808303196112</v>
+        <v>1.082512505750832</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.082301953678646</v>
+        <v>1.043773810259896</v>
       </c>
       <c r="D9">
-        <v>1.085688659064118</v>
+        <v>1.060567167593391</v>
       </c>
       <c r="E9">
-        <v>1.085437161479364</v>
+        <v>1.05209790003069</v>
       </c>
       <c r="F9">
-        <v>1.09704309022976</v>
+        <v>1.063366044595116</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.067054273034987</v>
+        <v>1.071992888003354</v>
       </c>
       <c r="J9">
-        <v>1.087825557963856</v>
+        <v>1.067870160786426</v>
       </c>
       <c r="K9">
-        <v>1.088697233245837</v>
+        <v>1.072748481494338</v>
       </c>
       <c r="L9">
-        <v>1.08844647647644</v>
+        <v>1.064398717833587</v>
       </c>
       <c r="M9">
-        <v>1.100018603220093</v>
+        <v>1.075508393439226</v>
       </c>
       <c r="N9">
-        <v>1.0893703950315</v>
+        <v>1.069386658901162</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.080151218646692</v>
+        <v>1.031428387263612</v>
       </c>
       <c r="D10">
-        <v>1.083893485073913</v>
+        <v>1.050360674036251</v>
       </c>
       <c r="E10">
-        <v>1.083486558536975</v>
+        <v>1.041128662187522</v>
       </c>
       <c r="F10">
-        <v>1.094987067075027</v>
+        <v>1.051974526003822</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.06621521581723</v>
+        <v>1.066270170388154</v>
       </c>
       <c r="J10">
-        <v>1.086193117139393</v>
+        <v>1.058448260608048</v>
       </c>
       <c r="K10">
-        <v>1.087176262321768</v>
+        <v>1.063876523782898</v>
       </c>
       <c r="L10">
-        <v>1.086770652723627</v>
+        <v>1.0547930165174</v>
       </c>
       <c r="M10">
-        <v>1.098234354614831</v>
+        <v>1.065464758394907</v>
       </c>
       <c r="N10">
-        <v>1.087735635953822</v>
+        <v>1.059951378543823</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.079218205109822</v>
+        <v>1.025845441219835</v>
       </c>
       <c r="D11">
-        <v>1.08311462737454</v>
+        <v>1.045750809865119</v>
       </c>
       <c r="E11">
-        <v>1.082640021225304</v>
+        <v>1.036171530917377</v>
       </c>
       <c r="F11">
-        <v>1.094095372269268</v>
+        <v>1.046831322427536</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.065849456870624</v>
+        <v>1.063668189384272</v>
       </c>
       <c r="J11">
-        <v>1.085483944104254</v>
+        <v>1.054181190308949</v>
       </c>
       <c r="K11">
-        <v>1.086515428573439</v>
+        <v>1.059858601457098</v>
       </c>
       <c r="L11">
-        <v>1.08604241832261</v>
+        <v>1.050442090438354</v>
       </c>
       <c r="M11">
-        <v>1.09745967398313</v>
+        <v>1.060920995279368</v>
       </c>
       <c r="N11">
-        <v>1.087025455811631</v>
+        <v>1.05567824851546</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.078871375320308</v>
+        <v>1.02373277794289</v>
       </c>
       <c r="D12">
-        <v>1.082825089134557</v>
+        <v>1.044007373679276</v>
       </c>
       <c r="E12">
-        <v>1.082325286029999</v>
+        <v>1.034296312316461</v>
       </c>
       <c r="F12">
-        <v>1.093763937266375</v>
+        <v>1.044886436460541</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.065713227800211</v>
+        <v>1.062681526483957</v>
       </c>
       <c r="J12">
-        <v>1.085220172448212</v>
+        <v>1.052565612357592</v>
       </c>
       <c r="K12">
-        <v>1.086269623592112</v>
+        <v>1.058337385991374</v>
       </c>
       <c r="L12">
-        <v>1.085771524585224</v>
+        <v>1.048794680524451</v>
       </c>
       <c r="M12">
-        <v>1.097171603606538</v>
+        <v>1.059201408443605</v>
       </c>
       <c r="N12">
-        <v>1.086761309569582</v>
+        <v>1.054060376258104</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.078945783682675</v>
+        <v>1.024187768859883</v>
       </c>
       <c r="D13">
-        <v>1.082887206823435</v>
+        <v>1.044382799177919</v>
       </c>
       <c r="E13">
-        <v>1.082392811179452</v>
+        <v>1.034700136094814</v>
       </c>
       <c r="F13">
-        <v>1.093835041245435</v>
+        <v>1.045305230277495</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.065742466187297</v>
+        <v>1.062894108644149</v>
       </c>
       <c r="J13">
-        <v>1.085276768433888</v>
+        <v>1.05291358668367</v>
       </c>
       <c r="K13">
-        <v>1.086322365145458</v>
+        <v>1.05866503414921</v>
       </c>
       <c r="L13">
-        <v>1.085829650180312</v>
+        <v>1.049149514611187</v>
       </c>
       <c r="M13">
-        <v>1.097233410228701</v>
+        <v>1.059571750712127</v>
       </c>
       <c r="N13">
-        <v>1.086817985928049</v>
+        <v>1.054408844747637</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.079189541538666</v>
+        <v>1.025671621827182</v>
       </c>
       <c r="D14">
-        <v>1.083090698893517</v>
+        <v>1.04560734757879</v>
       </c>
       <c r="E14">
-        <v>1.082614011139446</v>
+        <v>1.036017233898051</v>
       </c>
       <c r="F14">
-        <v>1.0940679802684</v>
+        <v>1.046671278361059</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.065838203697173</v>
+        <v>1.063587052596493</v>
       </c>
       <c r="J14">
-        <v>1.085462147893449</v>
+        <v>1.05404828559881</v>
       </c>
       <c r="K14">
-        <v>1.086495117260031</v>
+        <v>1.059733458683584</v>
       </c>
       <c r="L14">
-        <v>1.086020034253827</v>
+        <v>1.050306568708735</v>
       </c>
       <c r="M14">
-        <v>1.097435868546201</v>
+        <v>1.060779518989589</v>
       </c>
       <c r="N14">
-        <v>1.087003628647706</v>
+        <v>1.055545155065389</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.079339693207604</v>
+        <v>1.026580612497898</v>
       </c>
       <c r="D15">
-        <v>1.083216045672927</v>
+        <v>1.046357626810069</v>
       </c>
       <c r="E15">
-        <v>1.082750260655017</v>
+        <v>1.036824158259067</v>
       </c>
       <c r="F15">
-        <v>1.094211472375255</v>
+        <v>1.047508287312696</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.065897141627185</v>
+        <v>1.064011276031007</v>
       </c>
       <c r="J15">
-        <v>1.085576319331625</v>
+        <v>1.054743277937565</v>
       </c>
       <c r="K15">
-        <v>1.0866015100875</v>
+        <v>1.060387863277065</v>
       </c>
       <c r="L15">
-        <v>1.086137283645432</v>
+        <v>1.051015242795976</v>
       </c>
       <c r="M15">
-        <v>1.097560567292446</v>
+        <v>1.061519364923513</v>
       </c>
       <c r="N15">
-        <v>1.087117962222421</v>
+        <v>1.056241134372981</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.080213102618754</v>
+        <v>1.031793640471691</v>
       </c>
       <c r="D16">
-        <v>1.083945142506735</v>
+        <v>1.050662395801369</v>
       </c>
       <c r="E16">
-        <v>1.083542699599495</v>
+        <v>1.041453053165774</v>
       </c>
       <c r="F16">
-        <v>1.095046215423509</v>
+        <v>1.052311192508941</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.066239438328681</v>
+        <v>1.066440115341489</v>
       </c>
       <c r="J16">
-        <v>1.08624013337938</v>
+        <v>1.058727302527926</v>
       </c>
       <c r="K16">
-        <v>1.087220072002269</v>
+        <v>1.064139276128895</v>
       </c>
       <c r="L16">
-        <v>1.086818928154407</v>
+        <v>1.055077530169579</v>
       </c>
       <c r="M16">
-        <v>1.098285723121114</v>
+        <v>1.065761996900053</v>
       </c>
       <c r="N16">
-        <v>1.087782718962263</v>
+        <v>1.060230816735235</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.080760500919259</v>
+        <v>1.03499792761736</v>
       </c>
       <c r="D17">
-        <v>1.084402070984571</v>
+        <v>1.053310003954888</v>
       </c>
       <c r="E17">
-        <v>1.084039259067413</v>
+        <v>1.044299267633286</v>
       </c>
       <c r="F17">
-        <v>1.09556944240613</v>
+        <v>1.055265651131208</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.066453496139866</v>
+        <v>1.067929431685543</v>
       </c>
       <c r="J17">
-        <v>1.086655902729694</v>
+        <v>1.061174582440145</v>
       </c>
       <c r="K17">
-        <v>1.087607475523347</v>
+        <v>1.066443703345798</v>
       </c>
       <c r="L17">
-        <v>1.087245807880043</v>
+        <v>1.057572730450575</v>
       </c>
       <c r="M17">
-        <v>1.098740030918336</v>
+        <v>1.068369418968995</v>
       </c>
       <c r="N17">
-        <v>1.088199078752744</v>
+        <v>1.062681572065636</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.081079622535084</v>
+        <v>1.03684427865023</v>
       </c>
       <c r="D18">
-        <v>1.084668441828436</v>
+        <v>1.054836125485812</v>
       </c>
       <c r="E18">
-        <v>1.084328709605573</v>
+        <v>1.045939610823956</v>
       </c>
       <c r="F18">
-        <v>1.09587449494345</v>
+        <v>1.056968825427975</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.066578117067019</v>
+        <v>1.068786273373973</v>
       </c>
       <c r="J18">
-        <v>1.086898190920435</v>
+        <v>1.062584146072408</v>
       </c>
       <c r="K18">
-        <v>1.087833225328268</v>
+        <v>1.067770994626703</v>
       </c>
       <c r="L18">
-        <v>1.087494549931139</v>
+        <v>1.059009836469267</v>
       </c>
       <c r="M18">
-        <v>1.099004819773556</v>
+        <v>1.06987167735318</v>
       </c>
       <c r="N18">
-        <v>1.088441711020507</v>
+        <v>1.064093137439936</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.081188406718329</v>
+        <v>1.037470086369754</v>
       </c>
       <c r="D19">
-        <v>1.084759242485953</v>
+        <v>1.055353481001168</v>
       </c>
       <c r="E19">
-        <v>1.084427373698939</v>
+        <v>1.046495644628327</v>
       </c>
       <c r="F19">
-        <v>1.095978486934635</v>
+        <v>1.05754623305837</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.066620569752246</v>
+        <v>1.069076467842952</v>
       </c>
       <c r="J19">
-        <v>1.086980767262415</v>
+        <v>1.06306180557029</v>
       </c>
       <c r="K19">
-        <v>1.087910163667716</v>
+        <v>1.068220775079914</v>
       </c>
       <c r="L19">
-        <v>1.087579322365319</v>
+        <v>1.059496819111109</v>
       </c>
       <c r="M19">
-        <v>1.099095071973065</v>
+        <v>1.070380825476821</v>
       </c>
       <c r="N19">
-        <v>1.088524404630364</v>
+        <v>1.064571475269093</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.080701787541275</v>
+        <v>1.034656503552451</v>
       </c>
       <c r="D20">
-        <v>1.084353062209942</v>
+        <v>1.053027838729752</v>
       </c>
       <c r="E20">
-        <v>1.083986002033934</v>
+        <v>1.04399596323799</v>
       </c>
       <c r="F20">
-        <v>1.095513319308988</v>
+        <v>1.054950765264156</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.06643055413135</v>
+        <v>1.067770878514378</v>
       </c>
       <c r="J20">
-        <v>1.086611317723057</v>
+        <v>1.060913880043734</v>
       </c>
       <c r="K20">
-        <v>1.087565933182135</v>
+        <v>1.06619821785221</v>
       </c>
       <c r="L20">
-        <v>1.087200033592599</v>
+        <v>1.057306929227769</v>
       </c>
       <c r="M20">
-        <v>1.098691308843989</v>
+        <v>1.068091609382765</v>
       </c>
       <c r="N20">
-        <v>1.088154430430284</v>
+        <v>1.062420499441918</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.079117768352619</v>
+        <v>1.025235766388925</v>
       </c>
       <c r="D21">
-        <v>1.083030782101625</v>
+        <v>1.045247629696949</v>
       </c>
       <c r="E21">
-        <v>1.082548881416844</v>
+        <v>1.03563034166369</v>
       </c>
       <c r="F21">
-        <v>1.093999391649514</v>
+        <v>1.04626998730898</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.065810021622966</v>
+        <v>1.063383568029352</v>
       </c>
       <c r="J21">
-        <v>1.085407568056703</v>
+        <v>1.053715010945057</v>
       </c>
       <c r="K21">
-        <v>1.086444255545531</v>
+        <v>1.059419648594143</v>
       </c>
       <c r="L21">
-        <v>1.085963981840723</v>
+        <v>1.049966730263879</v>
       </c>
       <c r="M21">
-        <v>1.097376258482819</v>
+        <v>1.060424762204367</v>
       </c>
       <c r="N21">
-        <v>1.086948971301331</v>
+        <v>1.055211407123399</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.078120284256394</v>
+        <v>1.019085536503036</v>
       </c>
       <c r="D22">
-        <v>1.082198045222038</v>
+        <v>1.040174322129826</v>
       </c>
       <c r="E22">
-        <v>1.081643605240507</v>
+        <v>1.030172667456189</v>
       </c>
       <c r="F22">
-        <v>1.093046250248712</v>
+        <v>1.040610929040183</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.065417726466453</v>
+        <v>1.06050747830628</v>
       </c>
       <c r="J22">
-        <v>1.084648676596193</v>
+        <v>1.049010317136427</v>
       </c>
       <c r="K22">
-        <v>1.085737031711144</v>
+        <v>1.054989827704794</v>
       </c>
       <c r="L22">
-        <v>1.085184538529897</v>
+        <v>1.045169193750518</v>
       </c>
       <c r="M22">
-        <v>1.096547582806059</v>
+        <v>1.055418635351584</v>
       </c>
       <c r="N22">
-        <v>1.086189002127902</v>
+        <v>1.050500032109925</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.078649218544911</v>
+        <v>1.022368608845657</v>
       </c>
       <c r="D23">
-        <v>1.082639626080888</v>
+        <v>1.042881917468123</v>
       </c>
       <c r="E23">
-        <v>1.08212367258406</v>
+        <v>1.033085655218867</v>
       </c>
       <c r="F23">
-        <v>1.093551651415938</v>
+        <v>1.043631005652928</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.065625893598054</v>
+        <v>1.062043862353469</v>
       </c>
       <c r="J23">
-        <v>1.085051175076702</v>
+        <v>1.05152218416866</v>
       </c>
       <c r="K23">
-        <v>1.086112133818153</v>
+        <v>1.057354913505097</v>
       </c>
       <c r="L23">
-        <v>1.085597955009128</v>
+        <v>1.0477306714724</v>
       </c>
       <c r="M23">
-        <v>1.096987056829182</v>
+        <v>1.058091019834341</v>
       </c>
       <c r="N23">
-        <v>1.08659207220242</v>
+        <v>1.05301546628146</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.080728318103635</v>
+        <v>1.034810848161632</v>
       </c>
       <c r="D24">
-        <v>1.084375207622021</v>
+        <v>1.053155393054852</v>
       </c>
       <c r="E24">
-        <v>1.084010067163685</v>
+        <v>1.044133074439</v>
       </c>
       <c r="F24">
-        <v>1.09553867934344</v>
+        <v>1.055093110574033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.066440921364522</v>
+        <v>1.067842558377448</v>
       </c>
       <c r="J24">
-        <v>1.086631464457202</v>
+        <v>1.061031735348661</v>
       </c>
       <c r="K24">
-        <v>1.087584705045396</v>
+        <v>1.06630919405725</v>
       </c>
       <c r="L24">
-        <v>1.087220717793817</v>
+        <v>1.057427089732843</v>
       </c>
       <c r="M24">
-        <v>1.098713324873464</v>
+        <v>1.068217196887143</v>
       </c>
       <c r="N24">
-        <v>1.088174605775102</v>
+        <v>1.062538522114898</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.083134488069407</v>
+        <v>1.048369051796983</v>
       </c>
       <c r="D25">
-        <v>1.086383472965325</v>
+        <v>1.064370439483753</v>
       </c>
       <c r="E25">
-        <v>1.086191918468698</v>
+        <v>1.056183226294202</v>
       </c>
       <c r="F25">
-        <v>1.09783916489017</v>
+        <v>1.067612658444851</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.067377493219344</v>
+        <v>1.074110713725308</v>
       </c>
       <c r="J25">
-        <v>1.088456571607262</v>
+        <v>1.071371479724261</v>
       </c>
       <c r="K25">
-        <v>1.089285081142773</v>
+        <v>1.076045398833292</v>
       </c>
       <c r="L25">
-        <v>1.08909406936382</v>
+        <v>1.067967766859059</v>
       </c>
       <c r="M25">
-        <v>1.100708689804984</v>
+        <v>1.079244805047309</v>
       </c>
       <c r="N25">
-        <v>1.090002304786658</v>
+        <v>1.072892950113496</v>
       </c>
     </row>
   </sheetData>
